--- a/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -231,37 +231,13 @@
     <t>Welcome to Automation World...!</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840022196</t>
-  </si>
-  <si>
-    <t>9840036579</t>
-  </si>
-  <si>
-    <t>9840093161</t>
-  </si>
-  <si>
-    <t>9840050368</t>
-  </si>
-  <si>
     <t>WebFormId</t>
   </si>
   <si>
-    <t>9840020512</t>
-  </si>
-  <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:08:41</t>
-  </si>
-  <si>
-    <t>9840024102</t>
   </si>
   <si>
     <t>9840096245</t>
@@ -292,7 +268,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,88 +609,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="41" customWidth="true" width="15.26953125"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" customWidth="1"/>
+    <col min="42" max="42" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -724,91 +699,91 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AO1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -822,31 +797,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>81</v>
+      <c r="F2" t="s">
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -855,43 +830,43 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -921,26 +896,26 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" t="s" s="0">
+      <c r="AL2" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="0">
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2">
         <v>135</v>
       </c>
-      <c r="AP2" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>82</v>
+      <c r="AP2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -953,31 +928,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>83</v>
+      <c r="F3" t="s">
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -986,14 +961,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="AQ3" t="s" s="0">
-        <v>84</v>
+      <c r="AP3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -1006,7 +981,7 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1015,19 +990,19 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1036,8 +1011,8 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>51</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1050,7 +1025,7 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1059,19 +1034,19 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1080,8 +1055,8 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s" s="0">
-        <v>51</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1094,7 +1069,7 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1103,19 +1078,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1124,8 +1099,8 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>51</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1138,31 +1113,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>85</v>
+      <c r="F7" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1171,14 +1146,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="AP7" t="s" s="0">
+      <c r="AP7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>78</v>
-      </c>
-      <c r="AQ7" t="s" s="0">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1191,7 +1166,7 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1200,19 +1175,19 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1221,8 +1196,8 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>51</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1235,7 +1210,7 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1244,19 +1219,19 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1265,8 +1240,8 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>51</v>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1279,31 +1254,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>87</v>
+      <c r="F10" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>43</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1312,14 +1287,14 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s" s="0">
+      <c r="O10" t="s">
         <v>17</v>
       </c>
-      <c r="AP10" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="AQ10" t="s" s="0">
-        <v>88</v>
+      <c r="AP10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -262,12 +262,70 @@
   </si>
   <si>
     <t>2024-06-29 12:14:54</t>
+  </si>
+  <si>
+    <t>9840059963</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:06:03</t>
+  </si>
+  <si>
+    <t>9840016020</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:06:24</t>
+  </si>
+  <si>
+    <t>9840084688</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:06:46</t>
+  </si>
+  <si>
+    <t>9840058338</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:07:09</t>
+  </si>
+  <si>
+    <t>9840083966</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:07:31</t>
+  </si>
+  <si>
+    <t>9840029235</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:07:54</t>
+  </si>
+  <si>
+    <t>9840029250</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:08:16</t>
+  </si>
+  <si>
+    <t>9840004105</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:08:38</t>
+  </si>
+  <si>
+    <t>9840043291</t>
+  </si>
+  <si>
+    <t>2024-07-04 13:09:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,82 +673,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" customWidth="1"/>
-    <col min="42" max="42" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="41" max="41" customWidth="true" width="15.26953125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -699,91 +757,91 @@
       <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -797,31 +855,31 @@
       <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
+      <c r="F2" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -830,43 +888,43 @@
       <c r="N2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>51</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -896,26 +954,26 @@
       <c r="AJ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AN2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2">
+      <c r="AN2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="0">
         <v>135</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>74</v>
+      <c r="AQ2" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -928,31 +986,31 @@
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
+      <c r="F3" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -961,14 +1019,14 @@
       <c r="N3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>76</v>
+      <c r="AQ3" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -981,28 +1039,31 @@
       <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s" s="0">
+        <v>86</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1011,8 +1072,14 @@
       <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ4" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1025,28 +1092,31 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s" s="0">
+        <v>88</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1055,8 +1125,14 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP5" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ5" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1069,28 +1145,31 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>90</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1099,8 +1178,14 @@
       <c r="N6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ6" t="s" s="0">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1113,31 +1198,31 @@
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>77</v>
+      <c r="F7" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1146,14 +1231,14 @@
       <c r="N7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>78</v>
+      <c r="AQ7" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1166,28 +1251,31 @@
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s" s="0">
+        <v>94</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1196,8 +1284,14 @@
       <c r="N8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ8" t="s" s="0">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1210,28 +1304,31 @@
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F9" t="s" s="0">
+        <v>96</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1240,8 +1337,14 @@
       <c r="N9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
+      </c>
+      <c r="AP9" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="AQ9" t="s" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1254,31 +1357,31 @@
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>79</v>
+      <c r="F10" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1287,14 +1390,14 @@
       <c r="N10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>80</v>
+      <c r="AQ10" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -319,6 +319,60 @@
   </si>
   <si>
     <t>2024-07-04 13:09:00</t>
+  </si>
+  <si>
+    <t>9840016042</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:22:14</t>
+  </si>
+  <si>
+    <t>9840084157</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:22:35</t>
+  </si>
+  <si>
+    <t>9840009013</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:22:56</t>
+  </si>
+  <si>
+    <t>9840014112</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:23:16</t>
+  </si>
+  <si>
+    <t>9840055008</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:23:37</t>
+  </si>
+  <si>
+    <t>9840074005</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:23:58</t>
+  </si>
+  <si>
+    <t>9840014643</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:24:18</t>
+  </si>
+  <si>
+    <t>9840065618</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:24:38</t>
+  </si>
+  <si>
+    <t>9840001141</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:24:59</t>
   </si>
 </sst>
 </file>
@@ -862,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -964,7 +1018,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AO2" s="0">
         <v>135</v>
@@ -973,7 +1027,7 @@
         <v>72</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -993,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1026,7 +1080,7 @@
         <v>72</v>
       </c>
       <c r="AQ3" t="s" s="0">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -1046,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1079,7 +1133,7 @@
         <v>72</v>
       </c>
       <c r="AQ4" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1099,7 +1153,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1132,7 +1186,7 @@
         <v>72</v>
       </c>
       <c r="AQ5" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1152,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1185,7 +1239,7 @@
         <v>72</v>
       </c>
       <c r="AQ6" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1205,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1238,7 +1292,7 @@
         <v>72</v>
       </c>
       <c r="AQ7" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1258,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1291,7 +1345,7 @@
         <v>72</v>
       </c>
       <c r="AQ8" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1311,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1344,7 +1398,7 @@
         <v>72</v>
       </c>
       <c r="AQ9" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1364,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1397,7 +1451,7 @@
         <v>72</v>
       </c>
       <c r="AQ10" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -373,6 +373,60 @@
   </si>
   <si>
     <t>2024-07-08 12:24:59</t>
+  </si>
+  <si>
+    <t>9840018759</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:40:52</t>
+  </si>
+  <si>
+    <t>9840070176</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:41:22</t>
+  </si>
+  <si>
+    <t>9840075116</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:41:51</t>
+  </si>
+  <si>
+    <t>9840092815</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:42:20</t>
+  </si>
+  <si>
+    <t>9840035925</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:42:49</t>
+  </si>
+  <si>
+    <t>9840007443</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:43:18</t>
+  </si>
+  <si>
+    <t>9840031856</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:43:46</t>
+  </si>
+  <si>
+    <t>9840061015</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:44:15</t>
+  </si>
+  <si>
+    <t>9840019872</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:44:43</t>
   </si>
 </sst>
 </file>
@@ -916,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1018,7 +1072,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="0">
         <v>135</v>
@@ -1027,7 +1081,7 @@
         <v>72</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -1047,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1080,7 +1134,7 @@
         <v>72</v>
       </c>
       <c r="AQ3" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.35">
@@ -1100,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1133,7 +1187,7 @@
         <v>72</v>
       </c>
       <c r="AQ4" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.35">
@@ -1153,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1186,7 +1240,7 @@
         <v>72</v>
       </c>
       <c r="AQ5" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.35">
@@ -1206,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1239,7 +1293,7 @@
         <v>72</v>
       </c>
       <c r="AQ6" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.35">
@@ -1259,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1292,7 +1346,7 @@
         <v>72</v>
       </c>
       <c r="AQ7" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.35">
@@ -1312,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1345,7 +1399,7 @@
         <v>72</v>
       </c>
       <c r="AQ8" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.35">
@@ -1365,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1398,7 +1452,7 @@
         <v>72</v>
       </c>
       <c r="AQ9" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.35">
@@ -1418,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1451,7 +1505,7 @@
         <v>72</v>
       </c>
       <c r="AQ10" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/TC005_WF_RRUserYN_OneConditionYN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -231,202 +231,94 @@
     <t>Welcome to Automation World...!</t>
   </si>
   <si>
+    <t>WebFormId</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840070176</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:41:22</t>
+  </si>
+  <si>
+    <t>9840075116</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:41:51</t>
+  </si>
+  <si>
+    <t>9840092815</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:42:20</t>
+  </si>
+  <si>
+    <t>9840035925</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:42:49</t>
+  </si>
+  <si>
+    <t>9840007443</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:43:18</t>
+  </si>
+  <si>
+    <t>9840031856</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:43:46</t>
+  </si>
+  <si>
+    <t>9840061015</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:44:15</t>
+  </si>
+  <si>
+    <t>9840019872</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:44:43</t>
+  </si>
+  <si>
+    <t>9840074453</t>
+  </si>
+  <si>
+    <t>2024-12-30 14:55:12</t>
+  </si>
+  <si>
+    <t>9840024396</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:03:19</t>
+  </si>
+  <si>
+    <t>9840049885</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>WebFormId</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>9840096245</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:13:43</t>
-  </si>
-  <si>
-    <t>9840087647</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:14:06</t>
-  </si>
-  <si>
-    <t>9840042851</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:14:30</t>
-  </si>
-  <si>
-    <t>9840043424</t>
-  </si>
-  <si>
-    <t>2024-06-29 12:14:54</t>
-  </si>
-  <si>
-    <t>9840059963</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:06:03</t>
-  </si>
-  <si>
-    <t>9840016020</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:06:24</t>
-  </si>
-  <si>
-    <t>9840084688</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:06:46</t>
-  </si>
-  <si>
-    <t>9840058338</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:07:09</t>
-  </si>
-  <si>
-    <t>9840083966</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:07:31</t>
-  </si>
-  <si>
-    <t>9840029235</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:07:54</t>
-  </si>
-  <si>
-    <t>9840029250</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:08:16</t>
-  </si>
-  <si>
-    <t>9840004105</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:08:38</t>
-  </si>
-  <si>
-    <t>9840043291</t>
-  </si>
-  <si>
-    <t>2024-07-04 13:09:00</t>
-  </si>
-  <si>
-    <t>9840016042</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:22:14</t>
-  </si>
-  <si>
-    <t>9840084157</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:22:35</t>
-  </si>
-  <si>
-    <t>9840009013</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:22:56</t>
-  </si>
-  <si>
-    <t>9840014112</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:23:16</t>
-  </si>
-  <si>
-    <t>9840055008</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:23:37</t>
-  </si>
-  <si>
-    <t>9840074005</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:23:58</t>
-  </si>
-  <si>
-    <t>9840014643</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:24:18</t>
-  </si>
-  <si>
-    <t>9840065618</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:24:38</t>
-  </si>
-  <si>
-    <t>9840001141</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:24:59</t>
-  </si>
-  <si>
-    <t>9840018759</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:40:52</t>
-  </si>
-  <si>
-    <t>9840070176</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:41:22</t>
-  </si>
-  <si>
-    <t>9840075116</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:41:51</t>
-  </si>
-  <si>
-    <t>9840092815</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:42:20</t>
-  </si>
-  <si>
-    <t>9840035925</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:42:49</t>
-  </si>
-  <si>
-    <t>9840007443</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:43:18</t>
-  </si>
-  <si>
-    <t>9840031856</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:43:46</t>
-  </si>
-  <si>
-    <t>9840061015</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:44:15</t>
-  </si>
-  <si>
-    <t>9840019872</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:44:43</t>
+    <t>2024-12-30 15:03:50</t>
+  </si>
+  <si>
+    <t>9840068582</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:07:48</t>
+  </si>
+  <si>
+    <t>9840040482</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:08:20</t>
   </si>
 </sst>
 </file>
@@ -775,54 +667,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="41" customWidth="true" width="15.26953125"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="41" customWidth="true" width="15.28515625"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -944,7 +836,7 @@
         <v>53</v>
       </c>
       <c r="AO1" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP1" t="s" s="0">
         <v>68</v>
@@ -953,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -970,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1069,22 +961,22 @@
         <v>63</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AO2" s="0">
         <v>135</v>
       </c>
       <c r="AP2" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ2" t="s" s="0">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1131,13 +1023,13 @@
         <v>17</v>
       </c>
       <c r="AP3" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ3" t="s" s="0">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1181,16 +1073,16 @@
         <v>55</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ4" t="s" s="0">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1099,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1234,16 +1126,16 @@
         <v>56</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ5" t="s" s="0">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1287,16 +1179,16 @@
         <v>57</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ6" t="s" s="0">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1313,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1340,16 +1232,16 @@
         <v>48</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ7" t="s" s="0">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1393,16 +1285,16 @@
         <v>54</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ8" t="s" s="0">
-        <v>131</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1419,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1446,16 +1338,16 @@
         <v>55</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP9" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ9" t="s" s="0">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1499,13 +1391,13 @@
         <v>56</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AP10" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ10" t="s" s="0">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
